--- a/geo/geo_stru.xlsx
+++ b/geo/geo_stru.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marsz\Documents\GitHub\ScenarioBank\geo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A5ABBE-B7BA-4710-BBD8-50B21C285518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF65A7D-B459-4C7F-A1DC-480578A9230C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="30" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t>OID</t>
   </si>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>מפתח עיקרי</t>
+  </si>
+  <si>
+    <t>Real (8 bytes)</t>
+  </si>
+  <si>
+    <t>Integer (2 bytes)</t>
+  </si>
+  <si>
+    <t>NameMahoz</t>
+  </si>
+  <si>
+    <t>Mahozot</t>
   </si>
 </sst>
 </file>
@@ -232,7 +244,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -516,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:I28"/>
+  <dimension ref="B2:I33"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,55 +541,78 @@
     <col min="3" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>0</v>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -587,20 +622,20 @@
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>2</v>
+      <c r="C6" t="s">
+        <v>3</v>
       </c>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
         <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>12</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -611,13 +646,13 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
@@ -634,19 +669,16 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -657,10 +689,10 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
@@ -677,56 +709,59 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="1">
-        <v>16</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2</v>
+      <c r="I12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
-        <v>0</v>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
       </c>
       <c r="G13" t="s">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -736,20 +771,17 @@
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>24</v>
+      <c r="C14" t="s">
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -760,56 +792,59 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <v>16</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>8</v>
       </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16">
-        <v>16</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
+      <c r="I17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C18" t="s">
-        <v>0</v>
+      <c r="C18" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
       </c>
       <c r="G18" t="s">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -819,20 +854,17 @@
       <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>30</v>
+      <c r="C19" t="s">
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -843,16 +875,16 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -863,10 +895,7 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>1</v>
@@ -883,7 +912,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
       </c>
       <c r="G22" t="s">
         <v>1</v>
@@ -900,10 +932,10 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
         <v>1</v>
@@ -920,16 +952,16 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -940,10 +972,10 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
         <v>4</v>
@@ -960,10 +992,10 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
         <v>4</v>
@@ -980,38 +1012,89 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H27">
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30">
         <v>8</v>
       </c>
-      <c r="D28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28">
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32">
         <v>16</v>
       </c>
-      <c r="I28">
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
         <v>2</v>
       </c>
     </row>

--- a/geo/geo_stru.xlsx
+++ b/geo/geo_stru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marsz\Documents\GitHub\ScenarioBank\geo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF65A7D-B459-4C7F-A1DC-480578A9230C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39C4A4A-3918-40B2-8492-A2557A54611A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>OID</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Mahozot</t>
+  </si>
+  <si>
+    <t>MahozNum</t>
   </si>
 </sst>
 </file>
@@ -247,7 +250,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,7 +534,7 @@
   <dimension ref="B2:I33"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1055,7 @@
         <v>50</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s">
         <v>48</v>
